--- a/需求工程项目/阶段性工作任务评审表.xlsx
+++ b/需求工程项目/阶段性工作任务评审表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CB9F0F-6B48-4203-BFCE-59AE294414A6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7516670-9DC7-44AB-ABCA-DC91FBC9C6FE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -353,24 +353,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -409,6 +391,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -692,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95:F99"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E126" sqref="E126:E130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -702,47 +702,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="15"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="16" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="10" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="1" t="s">
         <v>34</v>
       </c>
@@ -755,330 +755,340 @@
       <c r="F4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="12"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10">
-        <v>8</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10">
-        <v>8</v>
-      </c>
-      <c r="G5" s="10"/>
+      <c r="C5" s="4">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4">
+        <v>8</v>
+      </c>
+      <c r="F5" s="4">
+        <v>8</v>
+      </c>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="11"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="11"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="12"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="10">
-        <v>8</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10">
-        <v>8</v>
-      </c>
-      <c r="G9" s="10"/>
+      <c r="C9" s="4">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4">
+        <v>8</v>
+      </c>
+      <c r="F9" s="4">
+        <v>8</v>
+      </c>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="12"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="10">
-        <v>8</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10">
-        <v>8</v>
-      </c>
-      <c r="G11" s="10"/>
+      <c r="C11" s="4">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4">
+        <v>8</v>
+      </c>
+      <c r="F11" s="4">
+        <v>8</v>
+      </c>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="11"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="11"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="11"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="12"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="10">
-        <v>8</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10">
-        <v>8</v>
-      </c>
-      <c r="G16" s="10"/>
+      <c r="C16" s="4">
+        <v>8</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4">
+        <v>8</v>
+      </c>
+      <c r="F16" s="4">
+        <v>8</v>
+      </c>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="11"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="11"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="11"/>
+      <c r="A19" s="5"/>
       <c r="B19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="12"/>
+      <c r="A20" s="6"/>
       <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="4">
         <v>10</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10">
+      <c r="D21" s="4"/>
+      <c r="E21" s="4">
+        <v>9</v>
+      </c>
+      <c r="F21" s="4">
         <v>10</v>
       </c>
-      <c r="G21" s="10"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="11"/>
+      <c r="A22" s="5"/>
       <c r="B22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="11"/>
+      <c r="A23" s="5"/>
       <c r="B23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="11"/>
+      <c r="A24" s="5"/>
       <c r="B24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="12"/>
+      <c r="A25" s="6"/>
       <c r="B25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="5"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="7"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="29" spans="1:7" ht="20.65" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="15"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="16" t="s">
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="18"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="12"/>
     </row>
     <row r="31" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="16" t="s">
+      <c r="B31" s="14"/>
+      <c r="C31" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="10" t="s">
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="1" t="s">
         <v>33</v>
       </c>
@@ -1091,330 +1101,340 @@
       <c r="F32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="12"/>
+      <c r="G32" s="6"/>
     </row>
     <row r="33" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="4">
         <v>9</v>
       </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10">
+      <c r="D33" s="4"/>
+      <c r="E33" s="4">
         <v>9</v>
       </c>
-      <c r="G33" s="10"/>
+      <c r="F33" s="4">
+        <v>9</v>
+      </c>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="11"/>
+      <c r="A34" s="5"/>
       <c r="B34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="11"/>
+      <c r="A35" s="5"/>
       <c r="B35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
     </row>
     <row r="36" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="12"/>
+      <c r="A36" s="6"/>
       <c r="B36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="4">
         <v>10</v>
       </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10">
+      <c r="D37" s="4"/>
+      <c r="E37" s="4">
         <v>10</v>
       </c>
-      <c r="G37" s="10"/>
+      <c r="F37" s="4">
+        <v>10</v>
+      </c>
+      <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="12"/>
+      <c r="A38" s="6"/>
       <c r="B38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
     </row>
     <row r="39" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="4">
         <v>9</v>
       </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10">
+      <c r="D39" s="4"/>
+      <c r="E39" s="4">
         <v>9</v>
       </c>
-      <c r="G39" s="10"/>
+      <c r="F39" s="4">
+        <v>9</v>
+      </c>
+      <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="11"/>
+      <c r="A40" s="5"/>
       <c r="B40" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
     </row>
     <row r="41" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="11"/>
+      <c r="A41" s="5"/>
       <c r="B41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
     </row>
     <row r="42" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="11"/>
+      <c r="A42" s="5"/>
       <c r="B42" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
     </row>
     <row r="43" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="12"/>
+      <c r="A43" s="6"/>
       <c r="B43" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
     </row>
     <row r="44" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="4">
         <v>9</v>
       </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10">
+      <c r="D44" s="4"/>
+      <c r="E44" s="4">
         <v>9</v>
       </c>
-      <c r="G44" s="10"/>
+      <c r="F44" s="4">
+        <v>9</v>
+      </c>
+      <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="11"/>
+      <c r="A45" s="5"/>
       <c r="B45" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
     </row>
     <row r="46" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="11"/>
+      <c r="A46" s="5"/>
       <c r="B46" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
     </row>
     <row r="47" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="11"/>
+      <c r="A47" s="5"/>
       <c r="B47" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
     </row>
     <row r="48" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="12"/>
+      <c r="A48" s="6"/>
       <c r="B48" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
     </row>
     <row r="49" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="4">
         <v>10</v>
       </c>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10">
+      <c r="D49" s="4"/>
+      <c r="E49" s="4">
+        <v>9</v>
+      </c>
+      <c r="F49" s="4">
         <v>10</v>
       </c>
-      <c r="G49" s="10"/>
+      <c r="G49" s="4"/>
     </row>
     <row r="50" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="11"/>
+      <c r="A50" s="5"/>
       <c r="B50" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
     </row>
     <row r="51" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="11"/>
+      <c r="A51" s="5"/>
       <c r="B51" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
     </row>
     <row r="52" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="11"/>
+      <c r="A52" s="5"/>
       <c r="B52" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
     </row>
     <row r="53" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="12"/>
+      <c r="A53" s="6"/>
       <c r="B53" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="5"/>
+      <c r="A54" s="17"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="18"/>
     </row>
     <row r="55" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="6"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="7"/>
+      <c r="A55" s="19"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="20"/>
     </row>
     <row r="56" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="57" spans="1:7" ht="20.65" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="15"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="9"/>
     </row>
     <row r="58" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="16" t="s">
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F58" s="17"/>
-      <c r="G58" s="18"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="12"/>
     </row>
     <row r="59" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="19" t="s">
+      <c r="A59" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="20"/>
-      <c r="C59" s="16" t="s">
+      <c r="B59" s="14"/>
+      <c r="C59" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="10" t="s">
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="21"/>
-      <c r="B60" s="22"/>
+      <c r="A60" s="15"/>
+      <c r="B60" s="16"/>
       <c r="C60" s="1" t="s">
         <v>34</v>
       </c>
@@ -1427,340 +1447,340 @@
       <c r="F60" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G60" s="12"/>
+      <c r="G60" s="6"/>
     </row>
     <row r="61" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="10">
-        <v>8</v>
-      </c>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10">
-        <v>8</v>
-      </c>
-      <c r="F61" s="10">
-        <v>8</v>
-      </c>
-      <c r="G61" s="10"/>
+      <c r="C61" s="4">
+        <v>8</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4">
+        <v>8</v>
+      </c>
+      <c r="F61" s="4">
+        <v>8</v>
+      </c>
+      <c r="G61" s="4"/>
     </row>
     <row r="62" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="11"/>
+      <c r="A62" s="5"/>
       <c r="B62" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
     </row>
     <row r="63" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="11"/>
+      <c r="A63" s="5"/>
       <c r="B63" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
     </row>
     <row r="64" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="12"/>
+      <c r="A64" s="6"/>
       <c r="B64" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
     </row>
     <row r="65" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C65" s="10">
+      <c r="C65" s="4">
         <v>7</v>
       </c>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10">
-        <v>8</v>
-      </c>
-      <c r="F65" s="10">
-        <v>8</v>
-      </c>
-      <c r="G65" s="10"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4">
+        <v>8</v>
+      </c>
+      <c r="F65" s="4">
+        <v>8</v>
+      </c>
+      <c r="G65" s="4"/>
     </row>
     <row r="66" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="12"/>
+      <c r="A66" s="6"/>
       <c r="B66" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
     </row>
     <row r="67" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C67" s="10">
-        <v>8</v>
-      </c>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10">
+      <c r="C67" s="4">
+        <v>8</v>
+      </c>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4">
         <v>7</v>
       </c>
-      <c r="F67" s="10">
-        <v>8</v>
-      </c>
-      <c r="G67" s="10"/>
+      <c r="F67" s="4">
+        <v>8</v>
+      </c>
+      <c r="G67" s="4"/>
     </row>
     <row r="68" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="11"/>
+      <c r="A68" s="5"/>
       <c r="B68" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
     </row>
     <row r="69" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="11"/>
+      <c r="A69" s="5"/>
       <c r="B69" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
     </row>
     <row r="70" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="11"/>
+      <c r="A70" s="5"/>
       <c r="B70" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
     </row>
     <row r="71" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="12"/>
+      <c r="A71" s="6"/>
       <c r="B71" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
     </row>
     <row r="72" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C72" s="10">
-        <v>8</v>
-      </c>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10">
-        <v>8</v>
-      </c>
-      <c r="F72" s="10">
-        <v>8</v>
-      </c>
-      <c r="G72" s="10"/>
+      <c r="C72" s="4">
+        <v>8</v>
+      </c>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4">
+        <v>8</v>
+      </c>
+      <c r="F72" s="4">
+        <v>8</v>
+      </c>
+      <c r="G72" s="4"/>
     </row>
     <row r="73" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="11"/>
+      <c r="A73" s="5"/>
       <c r="B73" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
     </row>
     <row r="74" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="11"/>
+      <c r="A74" s="5"/>
       <c r="B74" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
     </row>
     <row r="75" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="11"/>
+      <c r="A75" s="5"/>
       <c r="B75" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
     </row>
     <row r="76" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A76" s="12"/>
+      <c r="A76" s="6"/>
       <c r="B76" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
     </row>
     <row r="77" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C77" s="10">
+      <c r="C77" s="4">
         <v>7</v>
       </c>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10">
-        <v>8</v>
-      </c>
-      <c r="F77" s="10">
+      <c r="D77" s="4"/>
+      <c r="E77" s="4">
+        <v>8</v>
+      </c>
+      <c r="F77" s="4">
         <v>7</v>
       </c>
-      <c r="G77" s="10"/>
+      <c r="G77" s="4"/>
     </row>
     <row r="78" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A78" s="11"/>
+      <c r="A78" s="5"/>
       <c r="B78" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
     </row>
     <row r="79" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A79" s="11"/>
+      <c r="A79" s="5"/>
       <c r="B79" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
     </row>
     <row r="80" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A80" s="11"/>
+      <c r="A80" s="5"/>
       <c r="B80" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
     </row>
     <row r="81" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A81" s="12"/>
+      <c r="A81" s="6"/>
       <c r="B81" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A82" s="4"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="5"/>
+      <c r="A82" s="17"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="18"/>
     </row>
     <row r="83" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A83" s="6"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="7"/>
+      <c r="A83" s="19"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="20"/>
     </row>
     <row r="84" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="85" spans="1:7" ht="20.65" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A85" s="13" t="s">
+      <c r="A85" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="15"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="9"/>
     </row>
     <row r="86" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A86" s="16" t="s">
+      <c r="A86" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B86" s="17"/>
-      <c r="C86" s="17"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="16" t="s">
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F86" s="17"/>
-      <c r="G86" s="18"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="12"/>
     </row>
     <row r="87" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A87" s="19" t="s">
+      <c r="A87" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B87" s="20"/>
-      <c r="C87" s="16" t="s">
+      <c r="B87" s="14"/>
+      <c r="C87" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D87" s="17"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="10" t="s">
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A88" s="21"/>
-      <c r="B88" s="22"/>
+      <c r="A88" s="15"/>
+      <c r="B88" s="16"/>
       <c r="C88" s="1" t="s">
         <v>34</v>
       </c>
@@ -1773,296 +1793,306 @@
       <c r="F88" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G88" s="12"/>
+      <c r="G88" s="6"/>
     </row>
     <row r="89" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C89" s="10">
-        <v>8</v>
-      </c>
-      <c r="D89" s="10">
+      <c r="C89" s="4">
+        <v>8</v>
+      </c>
+      <c r="D89" s="4">
         <v>9</v>
       </c>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10">
-        <v>8</v>
-      </c>
-      <c r="G89" s="10"/>
+      <c r="E89" s="4">
+        <v>8</v>
+      </c>
+      <c r="F89" s="4">
+        <v>8</v>
+      </c>
+      <c r="G89" s="4"/>
     </row>
     <row r="90" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A90" s="11"/>
+      <c r="A90" s="5"/>
       <c r="B90" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
     </row>
     <row r="91" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A91" s="11"/>
+      <c r="A91" s="5"/>
       <c r="B91" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
     </row>
     <row r="92" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A92" s="12"/>
+      <c r="A92" s="6"/>
       <c r="B92" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
     </row>
     <row r="93" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A93" s="10" t="s">
+      <c r="A93" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C93" s="10">
-        <v>8</v>
-      </c>
-      <c r="D93" s="10">
+      <c r="C93" s="4">
+        <v>8</v>
+      </c>
+      <c r="D93" s="4">
         <v>9</v>
       </c>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10">
-        <v>8</v>
-      </c>
-      <c r="G93" s="10"/>
+      <c r="E93" s="4">
+        <v>8</v>
+      </c>
+      <c r="F93" s="4">
+        <v>8</v>
+      </c>
+      <c r="G93" s="4"/>
     </row>
     <row r="94" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A94" s="12"/>
+      <c r="A94" s="6"/>
       <c r="B94" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C94" s="12"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="12"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
     </row>
     <row r="95" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A95" s="10" t="s">
+      <c r="A95" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C95" s="10">
-        <v>8</v>
-      </c>
-      <c r="D95" s="10">
-        <v>8</v>
-      </c>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10">
-        <v>8</v>
-      </c>
-      <c r="G95" s="10"/>
+      <c r="C95" s="4">
+        <v>8</v>
+      </c>
+      <c r="D95" s="4">
+        <v>8</v>
+      </c>
+      <c r="E95" s="4">
+        <v>8</v>
+      </c>
+      <c r="F95" s="4">
+        <v>8</v>
+      </c>
+      <c r="G95" s="4"/>
     </row>
     <row r="96" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A96" s="11"/>
+      <c r="A96" s="5"/>
       <c r="B96" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
     </row>
     <row r="97" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A97" s="11"/>
+      <c r="A97" s="5"/>
       <c r="B97" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
     </row>
     <row r="98" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A98" s="11"/>
+      <c r="A98" s="5"/>
       <c r="B98" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="11"/>
-      <c r="G98" s="11"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
     </row>
     <row r="99" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A99" s="12"/>
+      <c r="A99" s="6"/>
       <c r="B99" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="12"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
     </row>
     <row r="100" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A100" s="10" t="s">
+      <c r="A100" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C100" s="10">
-        <v>8</v>
-      </c>
-      <c r="D100" s="10">
-        <v>8</v>
-      </c>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10">
-        <v>8</v>
-      </c>
-      <c r="G100" s="10"/>
+      <c r="C100" s="4">
+        <v>8</v>
+      </c>
+      <c r="D100" s="4">
+        <v>8</v>
+      </c>
+      <c r="E100" s="4">
+        <v>8</v>
+      </c>
+      <c r="F100" s="4">
+        <v>8</v>
+      </c>
+      <c r="G100" s="4"/>
     </row>
     <row r="101" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A101" s="11"/>
+      <c r="A101" s="5"/>
       <c r="B101" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C101" s="11"/>
-      <c r="D101" s="11"/>
-      <c r="E101" s="11"/>
-      <c r="F101" s="11"/>
-      <c r="G101" s="11"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
     </row>
     <row r="102" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A102" s="11"/>
+      <c r="A102" s="5"/>
       <c r="B102" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="11"/>
-      <c r="G102" s="11"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
     </row>
     <row r="103" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A103" s="11"/>
+      <c r="A103" s="5"/>
       <c r="B103" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="11"/>
-      <c r="G103" s="11"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
     </row>
     <row r="104" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A104" s="12"/>
+      <c r="A104" s="6"/>
       <c r="B104" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C104" s="12"/>
-      <c r="D104" s="12"/>
-      <c r="E104" s="12"/>
-      <c r="F104" s="12"/>
-      <c r="G104" s="12"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
     </row>
     <row r="105" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A105" s="10" t="s">
+      <c r="A105" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C105" s="10">
-        <v>8</v>
-      </c>
-      <c r="D105" s="10">
+      <c r="C105" s="4">
+        <v>8</v>
+      </c>
+      <c r="D105" s="4">
         <v>9</v>
       </c>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10">
-        <v>8</v>
-      </c>
-      <c r="G105" s="10"/>
+      <c r="E105" s="4">
+        <v>8</v>
+      </c>
+      <c r="F105" s="4">
+        <v>8</v>
+      </c>
+      <c r="G105" s="4"/>
     </row>
     <row r="106" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A106" s="11"/>
+      <c r="A106" s="5"/>
       <c r="B106" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C106" s="11"/>
-      <c r="D106" s="11"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="11"/>
-      <c r="G106" s="11"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
     </row>
     <row r="107" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A107" s="11"/>
+      <c r="A107" s="5"/>
       <c r="B107" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C107" s="11"/>
-      <c r="D107" s="11"/>
-      <c r="E107" s="11"/>
-      <c r="F107" s="11"/>
-      <c r="G107" s="11"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
     </row>
     <row r="108" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A108" s="11"/>
+      <c r="A108" s="5"/>
       <c r="B108" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="11"/>
-      <c r="G108" s="11"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
     </row>
     <row r="109" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A109" s="12"/>
+      <c r="A109" s="6"/>
       <c r="B109" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C109" s="12"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="12"/>
-      <c r="G109" s="12"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
     </row>
     <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="4"/>
-      <c r="B110" s="5"/>
-      <c r="C110" s="4"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="8"/>
-      <c r="F110" s="8"/>
-      <c r="G110" s="5"/>
+      <c r="A110" s="17"/>
+      <c r="B110" s="18"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="21"/>
+      <c r="E110" s="21"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="18"/>
     </row>
     <row r="111" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A111" s="6"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="6"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="7"/>
+      <c r="A111" s="19"/>
+      <c r="B111" s="20"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="22"/>
+      <c r="E111" s="22"/>
+      <c r="F111" s="22"/>
+      <c r="G111" s="20"/>
     </row>
     <row r="112" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="2"/>
@@ -2093,47 +2123,47 @@
     </row>
     <row r="115" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="116" spans="1:7" ht="20.65" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A116" s="13" t="s">
+      <c r="A116" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c r="G116" s="15"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="9"/>
     </row>
     <row r="117" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A117" s="16" t="s">
+      <c r="A117" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B117" s="17"/>
-      <c r="C117" s="17"/>
-      <c r="D117" s="18"/>
-      <c r="E117" s="16" t="s">
+      <c r="B117" s="11"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F117" s="17"/>
-      <c r="G117" s="18"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="12"/>
     </row>
     <row r="118" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A118" s="19" t="s">
+      <c r="A118" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B118" s="20"/>
-      <c r="C118" s="16" t="s">
+      <c r="B118" s="14"/>
+      <c r="C118" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D118" s="17"/>
-      <c r="E118" s="17"/>
-      <c r="F118" s="18"/>
-      <c r="G118" s="10" t="s">
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A119" s="21"/>
-      <c r="B119" s="22"/>
+      <c r="A119" s="15"/>
+      <c r="B119" s="16"/>
       <c r="C119" s="1" t="s">
         <v>34</v>
       </c>
@@ -2146,457 +2176,299 @@
       <c r="F119" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G119" s="12"/>
+      <c r="G119" s="6"/>
     </row>
     <row r="120" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A120" s="10" t="s">
+      <c r="A120" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C120" s="10">
-        <v>8</v>
-      </c>
-      <c r="D120" s="10"/>
-      <c r="E120" s="10"/>
-      <c r="F120" s="10">
+      <c r="C120" s="4">
+        <v>8</v>
+      </c>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4">
+        <v>6</v>
+      </c>
+      <c r="F120" s="4">
         <v>7</v>
       </c>
-      <c r="G120" s="10"/>
+      <c r="G120" s="4"/>
     </row>
     <row r="121" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A121" s="11"/>
+      <c r="A121" s="5"/>
       <c r="B121" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C121" s="11"/>
-      <c r="D121" s="11"/>
-      <c r="E121" s="11"/>
-      <c r="F121" s="11"/>
-      <c r="G121" s="11"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
     </row>
     <row r="122" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A122" s="11"/>
+      <c r="A122" s="5"/>
       <c r="B122" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C122" s="11"/>
-      <c r="D122" s="11"/>
-      <c r="E122" s="11"/>
-      <c r="F122" s="11"/>
-      <c r="G122" s="11"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
     </row>
     <row r="123" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A123" s="12"/>
+      <c r="A123" s="6"/>
       <c r="B123" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C123" s="12"/>
-      <c r="D123" s="12"/>
-      <c r="E123" s="12"/>
-      <c r="F123" s="12"/>
-      <c r="G123" s="12"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
     </row>
     <row r="124" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A124" s="10" t="s">
+      <c r="A124" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C124" s="10">
+      <c r="C124" s="4">
         <v>9</v>
       </c>
-      <c r="D124" s="10"/>
-      <c r="E124" s="10"/>
-      <c r="F124" s="10">
+      <c r="D124" s="4"/>
+      <c r="E124" s="4">
         <v>9</v>
       </c>
-      <c r="G124" s="10"/>
+      <c r="F124" s="4">
+        <v>9</v>
+      </c>
+      <c r="G124" s="4"/>
     </row>
     <row r="125" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A125" s="12"/>
+      <c r="A125" s="6"/>
       <c r="B125" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C125" s="12"/>
-      <c r="D125" s="12"/>
-      <c r="E125" s="12"/>
-      <c r="F125" s="12"/>
-      <c r="G125" s="12"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
     </row>
     <row r="126" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A126" s="10" t="s">
+      <c r="A126" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C126" s="10">
+      <c r="C126" s="4">
         <v>7</v>
       </c>
-      <c r="D126" s="10"/>
-      <c r="E126" s="10"/>
-      <c r="F126" s="10">
+      <c r="D126" s="4"/>
+      <c r="E126" s="4">
         <v>7</v>
       </c>
-      <c r="G126" s="10"/>
+      <c r="F126" s="4">
+        <v>7</v>
+      </c>
+      <c r="G126" s="4"/>
     </row>
     <row r="127" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A127" s="11"/>
+      <c r="A127" s="5"/>
       <c r="B127" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C127" s="11"/>
-      <c r="D127" s="11"/>
-      <c r="E127" s="11"/>
-      <c r="F127" s="11"/>
-      <c r="G127" s="11"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
     </row>
     <row r="128" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A128" s="11"/>
+      <c r="A128" s="5"/>
       <c r="B128" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C128" s="11"/>
-      <c r="D128" s="11"/>
-      <c r="E128" s="11"/>
-      <c r="F128" s="11"/>
-      <c r="G128" s="11"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
     </row>
     <row r="129" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A129" s="11"/>
+      <c r="A129" s="5"/>
       <c r="B129" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C129" s="11"/>
-      <c r="D129" s="11"/>
-      <c r="E129" s="11"/>
-      <c r="F129" s="11"/>
-      <c r="G129" s="11"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
     </row>
     <row r="130" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A130" s="12"/>
+      <c r="A130" s="6"/>
       <c r="B130" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C130" s="12"/>
-      <c r="D130" s="12"/>
-      <c r="E130" s="12"/>
-      <c r="F130" s="12"/>
-      <c r="G130" s="12"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="6"/>
     </row>
     <row r="131" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A131" s="10" t="s">
+      <c r="A131" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C131" s="10">
-        <v>8</v>
-      </c>
-      <c r="D131" s="10"/>
-      <c r="E131" s="10"/>
-      <c r="F131" s="10">
+      <c r="C131" s="4">
+        <v>8</v>
+      </c>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4">
+        <v>8</v>
+      </c>
+      <c r="F131" s="4">
         <v>9</v>
       </c>
-      <c r="G131" s="10"/>
+      <c r="G131" s="4"/>
     </row>
     <row r="132" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A132" s="11"/>
+      <c r="A132" s="5"/>
       <c r="B132" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C132" s="11"/>
-      <c r="D132" s="11"/>
-      <c r="E132" s="11"/>
-      <c r="F132" s="11"/>
-      <c r="G132" s="11"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
     </row>
     <row r="133" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A133" s="11"/>
+      <c r="A133" s="5"/>
       <c r="B133" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C133" s="11"/>
-      <c r="D133" s="11"/>
-      <c r="E133" s="11"/>
-      <c r="F133" s="11"/>
-      <c r="G133" s="11"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
     </row>
     <row r="134" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A134" s="11"/>
+      <c r="A134" s="5"/>
       <c r="B134" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C134" s="11"/>
-      <c r="D134" s="11"/>
-      <c r="E134" s="11"/>
-      <c r="F134" s="11"/>
-      <c r="G134" s="11"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
     </row>
     <row r="135" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A135" s="12"/>
+      <c r="A135" s="6"/>
       <c r="B135" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C135" s="12"/>
-      <c r="D135" s="12"/>
-      <c r="E135" s="12"/>
-      <c r="F135" s="12"/>
-      <c r="G135" s="12"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="6"/>
     </row>
     <row r="136" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A136" s="10" t="s">
+      <c r="A136" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C136" s="10">
+      <c r="C136" s="4">
         <v>9</v>
       </c>
-      <c r="D136" s="10"/>
-      <c r="E136" s="10"/>
-      <c r="F136" s="10">
+      <c r="D136" s="4"/>
+      <c r="E136" s="4">
+        <v>8</v>
+      </c>
+      <c r="F136" s="4">
         <v>10</v>
       </c>
-      <c r="G136" s="10"/>
+      <c r="G136" s="4"/>
     </row>
     <row r="137" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A137" s="11"/>
+      <c r="A137" s="5"/>
       <c r="B137" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C137" s="11"/>
-      <c r="D137" s="11"/>
-      <c r="E137" s="11"/>
-      <c r="F137" s="11"/>
-      <c r="G137" s="11"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
     </row>
     <row r="138" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A138" s="11"/>
+      <c r="A138" s="5"/>
       <c r="B138" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C138" s="11"/>
-      <c r="D138" s="11"/>
-      <c r="E138" s="11"/>
-      <c r="F138" s="11"/>
-      <c r="G138" s="11"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
     </row>
     <row r="139" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A139" s="11"/>
+      <c r="A139" s="5"/>
       <c r="B139" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C139" s="11"/>
-      <c r="D139" s="11"/>
-      <c r="E139" s="11"/>
-      <c r="F139" s="11"/>
-      <c r="G139" s="11"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
     </row>
     <row r="140" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A140" s="12"/>
+      <c r="A140" s="6"/>
       <c r="B140" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C140" s="12"/>
-      <c r="D140" s="12"/>
-      <c r="E140" s="12"/>
-      <c r="F140" s="12"/>
-      <c r="G140" s="12"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
+      <c r="F140" s="6"/>
+      <c r="G140" s="6"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A141" s="4"/>
-      <c r="B141" s="5"/>
-      <c r="C141" s="4"/>
-      <c r="D141" s="8"/>
-      <c r="E141" s="8"/>
-      <c r="F141" s="8"/>
-      <c r="G141" s="5"/>
+      <c r="A141" s="17"/>
+      <c r="B141" s="18"/>
+      <c r="C141" s="17"/>
+      <c r="D141" s="21"/>
+      <c r="E141" s="21"/>
+      <c r="F141" s="21"/>
+      <c r="G141" s="18"/>
     </row>
     <row r="142" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A142" s="6"/>
-      <c r="B142" s="7"/>
-      <c r="C142" s="6"/>
-      <c r="D142" s="9"/>
-      <c r="E142" s="9"/>
-      <c r="F142" s="9"/>
-      <c r="G142" s="7"/>
+      <c r="A142" s="19"/>
+      <c r="B142" s="20"/>
+      <c r="C142" s="19"/>
+      <c r="D142" s="22"/>
+      <c r="E142" s="22"/>
+      <c r="F142" s="22"/>
+      <c r="G142" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="190">
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="F5:F8"/>
-    <mergeCell ref="G5:G8"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="G11:G15"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="G21:G25"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="D16:D20"/>
-    <mergeCell ref="E16:E20"/>
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="G16:G20"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="G33:G36"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="E39:E43"/>
-    <mergeCell ref="F39:F43"/>
-    <mergeCell ref="G39:G43"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="D49:D53"/>
-    <mergeCell ref="E49:E53"/>
-    <mergeCell ref="F49:F53"/>
-    <mergeCell ref="G49:G53"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="C44:C48"/>
-    <mergeCell ref="D44:D48"/>
-    <mergeCell ref="E44:E48"/>
-    <mergeCell ref="F44:F48"/>
-    <mergeCell ref="G44:G48"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="D61:D64"/>
-    <mergeCell ref="E61:E64"/>
-    <mergeCell ref="F61:F64"/>
-    <mergeCell ref="G61:G64"/>
-    <mergeCell ref="A57:G57"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="A59:B60"/>
-    <mergeCell ref="C59:F59"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="C67:C71"/>
-    <mergeCell ref="D67:D71"/>
-    <mergeCell ref="E67:E71"/>
-    <mergeCell ref="F67:F71"/>
-    <mergeCell ref="G67:G71"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="C77:C81"/>
-    <mergeCell ref="D77:D81"/>
-    <mergeCell ref="E77:E81"/>
-    <mergeCell ref="F77:F81"/>
-    <mergeCell ref="G77:G81"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="C72:C76"/>
-    <mergeCell ref="D72:D76"/>
-    <mergeCell ref="E72:E76"/>
-    <mergeCell ref="F72:F76"/>
-    <mergeCell ref="G72:G76"/>
-    <mergeCell ref="A89:A92"/>
-    <mergeCell ref="C89:C92"/>
-    <mergeCell ref="D89:D92"/>
-    <mergeCell ref="E89:E92"/>
-    <mergeCell ref="F89:F92"/>
-    <mergeCell ref="G89:G92"/>
-    <mergeCell ref="A85:G85"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="A87:B88"/>
-    <mergeCell ref="C87:F87"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A95:A99"/>
-    <mergeCell ref="C95:C99"/>
-    <mergeCell ref="D95:D99"/>
-    <mergeCell ref="E95:E99"/>
-    <mergeCell ref="F95:F99"/>
-    <mergeCell ref="G95:G99"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A116:G116"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="E117:G117"/>
-    <mergeCell ref="A118:B119"/>
-    <mergeCell ref="C118:F118"/>
-    <mergeCell ref="G118:G119"/>
-    <mergeCell ref="A100:A104"/>
-    <mergeCell ref="C100:C104"/>
-    <mergeCell ref="D100:D104"/>
-    <mergeCell ref="E100:E104"/>
-    <mergeCell ref="F100:F104"/>
-    <mergeCell ref="G100:G104"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="F124:F125"/>
-    <mergeCell ref="G124:G125"/>
-    <mergeCell ref="A120:A123"/>
-    <mergeCell ref="C120:C123"/>
-    <mergeCell ref="D120:D123"/>
-    <mergeCell ref="E120:E123"/>
-    <mergeCell ref="F120:F123"/>
-    <mergeCell ref="G120:G123"/>
-    <mergeCell ref="D131:D135"/>
-    <mergeCell ref="E131:E135"/>
-    <mergeCell ref="F131:F135"/>
-    <mergeCell ref="G131:G135"/>
-    <mergeCell ref="A126:A130"/>
-    <mergeCell ref="C126:C130"/>
-    <mergeCell ref="D126:D130"/>
-    <mergeCell ref="E126:E130"/>
-    <mergeCell ref="F126:F130"/>
-    <mergeCell ref="G126:G130"/>
-    <mergeCell ref="A110:B111"/>
-    <mergeCell ref="C110:G111"/>
     <mergeCell ref="A141:B142"/>
     <mergeCell ref="C141:G142"/>
     <mergeCell ref="A26:B27"/>
@@ -2619,6 +2491,174 @@
     <mergeCell ref="G136:G140"/>
     <mergeCell ref="A131:A135"/>
     <mergeCell ref="C131:C135"/>
+    <mergeCell ref="D131:D135"/>
+    <mergeCell ref="E131:E135"/>
+    <mergeCell ref="F131:F135"/>
+    <mergeCell ref="G131:G135"/>
+    <mergeCell ref="A126:A130"/>
+    <mergeCell ref="C126:C130"/>
+    <mergeCell ref="D126:D130"/>
+    <mergeCell ref="E126:E130"/>
+    <mergeCell ref="F126:F130"/>
+    <mergeCell ref="G126:G130"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="G124:G125"/>
+    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="C120:C123"/>
+    <mergeCell ref="D120:D123"/>
+    <mergeCell ref="E120:E123"/>
+    <mergeCell ref="F120:F123"/>
+    <mergeCell ref="G120:G123"/>
+    <mergeCell ref="A116:G116"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="E117:G117"/>
+    <mergeCell ref="A118:B119"/>
+    <mergeCell ref="C118:F118"/>
+    <mergeCell ref="G118:G119"/>
+    <mergeCell ref="A100:A104"/>
+    <mergeCell ref="C100:C104"/>
+    <mergeCell ref="D100:D104"/>
+    <mergeCell ref="E100:E104"/>
+    <mergeCell ref="F100:F104"/>
+    <mergeCell ref="G100:G104"/>
+    <mergeCell ref="A110:B111"/>
+    <mergeCell ref="C110:G111"/>
+    <mergeCell ref="A95:A99"/>
+    <mergeCell ref="C95:C99"/>
+    <mergeCell ref="D95:D99"/>
+    <mergeCell ref="E95:E99"/>
+    <mergeCell ref="F95:F99"/>
+    <mergeCell ref="G95:G99"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A89:A92"/>
+    <mergeCell ref="C89:C92"/>
+    <mergeCell ref="D89:D92"/>
+    <mergeCell ref="E89:E92"/>
+    <mergeCell ref="F89:F92"/>
+    <mergeCell ref="G89:G92"/>
+    <mergeCell ref="A85:G85"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="A87:B88"/>
+    <mergeCell ref="C87:F87"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="C77:C81"/>
+    <mergeCell ref="D77:D81"/>
+    <mergeCell ref="E77:E81"/>
+    <mergeCell ref="F77:F81"/>
+    <mergeCell ref="G77:G81"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="C72:C76"/>
+    <mergeCell ref="D72:D76"/>
+    <mergeCell ref="E72:E76"/>
+    <mergeCell ref="F72:F76"/>
+    <mergeCell ref="G72:G76"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="C67:C71"/>
+    <mergeCell ref="D67:D71"/>
+    <mergeCell ref="E67:E71"/>
+    <mergeCell ref="F67:F71"/>
+    <mergeCell ref="G67:G71"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="D61:D64"/>
+    <mergeCell ref="E61:E64"/>
+    <mergeCell ref="F61:F64"/>
+    <mergeCell ref="G61:G64"/>
+    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="A59:B60"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="D49:D53"/>
+    <mergeCell ref="E49:E53"/>
+    <mergeCell ref="F49:F53"/>
+    <mergeCell ref="G49:G53"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="E44:E48"/>
+    <mergeCell ref="F44:F48"/>
+    <mergeCell ref="G44:G48"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="G39:G43"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="G33:G36"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="G21:G25"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="D16:D20"/>
+    <mergeCell ref="E16:E20"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="G16:G20"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="G11:G15"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:G4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/需求工程项目/阶段性工作任务评审表.xlsx
+++ b/需求工程项目/阶段性工作任务评审表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2083A56-7505-4802-8F9C-998C58282685}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDF33B0-F25B-47C2-A6AD-AD0FC545CDFF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="52">
   <si>
     <t>阶段性工作任务评审表</t>
   </si>
@@ -426,6 +426,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -456,46 +496,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -527,37 +527,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:radarChart>
@@ -568,7 +538,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$5</c:f>
+              <c:f>Sheet1!$Q$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -591,7 +561,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$H$6:$H$10</c:f>
+              <c:f>Sheet1!$P$10:$P$14</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -614,7 +584,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$6:$I$10</c:f>
+              <c:f>Sheet1!$Q$10:$Q$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -647,7 +617,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$5</c:f>
+              <c:f>Sheet1!$S$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -670,7 +640,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$H$6:$H$10</c:f>
+              <c:f>Sheet1!$P$10:$P$14</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -693,7 +663,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$6:$J$10</c:f>
+              <c:f>Sheet1!$S$10:$S$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -922,7 +892,1683 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>平均值</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$P$10:$P$14</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>工作质量</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>工作量</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>参与程度</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>工作规范</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>工作态度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$10:$Q$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C6F1-4E07-BF77-9EE8EEFA531F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>沈启航</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$P$10:$P$14</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>工作质量</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>工作量</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>参与程度</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>工作规范</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>工作态度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$10:$T$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C6F1-4E07-BF77-9EE8EEFA531F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="470166008"/>
+        <c:axId val="470168960"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="470166008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="470168960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="470168960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="470166008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>平均值</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$P$10:$P$14</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>工作质量</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>工作量</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>参与程度</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>工作规范</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>工作态度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$10:$Q$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-41C1-4470-B689-D38D586A9216}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$U$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>叶柏成</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$P$10:$P$14</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>工作质量</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>工作量</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>参与程度</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>工作规范</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>工作态度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$10:$U$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-41C1-4470-B689-D38D586A9216}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="471769248"/>
+        <c:axId val="471769576"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="471769248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="471769576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="471769576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="471769248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>平均值</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$P$10:$P$14</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>工作质量</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>工作量</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>参与程度</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>工作规范</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>工作态度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$10:$Q$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-727B-4B28-AEBA-0C32473C7FA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$V$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>杨以恒</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$P$10:$P$14</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>工作质量</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>工作量</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>参与程度</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>工作规范</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>工作态度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$V$10:$V$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-727B-4B28-AEBA-0C32473C7FA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="475802152"/>
+        <c:axId val="475805760"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="475802152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="475805760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="475805760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="475802152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>平均值</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$P$10:$P$14</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>工作质量</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>工作量</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>参与程度</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>工作规范</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>工作态度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$10:$Q$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4ED1-4CB8-9169-A7BE400B20CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>骆佳俊</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$P$10:$P$14</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>工作质量</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>工作量</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>参与程度</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>工作规范</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>工作态度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$10:$R$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4ED1-4CB8-9169-A7BE400B20CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="471769904"/>
+        <c:axId val="471771216"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="471769904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="471771216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="471771216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="471769904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1467,20 +3113,2040 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>113178</xdr:rowOff>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>183469</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>605118</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>144554</xdr:rowOff>
+      <xdr:colOff>515471</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>167984</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1500,6 +5166,150 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>335667</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>206900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>122755</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>191415</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FC33E10-60CA-4913-80BF-E8D5F8F833AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>442632</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>10288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>229720</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>194473</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4406EDF4-ECAF-49D4-AA78-7B83342CD8B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533296</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>36774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>320384</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>13141</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9299B5B5-6A94-4D58-B1C3-A10BA2110697}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38201</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>188562</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>508848</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>169004</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1C1982B-9B8B-4558-852F-1C8E9AB0D2AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1771,10 +5581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N142"/>
+  <dimension ref="A1:V142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:J10"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9:V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1782,48 +5592,48 @@
     <col min="2" max="2" width="35.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20"/>
+    </row>
+    <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="7" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
+    </row>
+    <row r="3" spans="1:22" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="14" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
+    <row r="4" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="1" t="s">
         <v>34</v>
       </c>
@@ -1836,50 +5646,32 @@
       <c r="F4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="1:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:22" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="15">
         <v>8</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="15">
         <v>8</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="15">
         <v>8</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="15">
         <v>8</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="15">
         <v>32</v>
       </c>
-      <c r="I5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:22" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="1" t="s">
         <v>9</v>
@@ -1889,29 +5681,8 @@
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
-      <c r="H6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6">
-        <v>8.15</v>
-      </c>
-      <c r="J6">
-        <v>8</v>
-      </c>
-      <c r="K6">
-        <v>9</v>
-      </c>
-      <c r="L6">
-        <v>8</v>
-      </c>
-      <c r="M6">
-        <v>8.5</v>
-      </c>
-      <c r="N6">
-        <v>7.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:22" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="1" t="s">
         <v>10</v>
@@ -1921,160 +5692,136 @@
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
-      <c r="H7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7">
-        <v>8.5500000000000007</v>
-      </c>
-      <c r="J7">
-        <v>8.25</v>
-      </c>
-      <c r="K7">
-        <v>9</v>
-      </c>
-      <c r="L7">
-        <v>8.25</v>
-      </c>
-      <c r="M7">
-        <v>8.25</v>
-      </c>
-      <c r="N7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+    </row>
+    <row r="8" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8">
-        <v>8.5</v>
-      </c>
-      <c r="J8">
-        <v>8.5</v>
-      </c>
-      <c r="K8">
-        <v>9.25</v>
-      </c>
-      <c r="L8">
-        <v>8.75</v>
-      </c>
-      <c r="M8">
-        <v>8.5</v>
-      </c>
-      <c r="N8">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="15">
         <v>8</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="15">
         <v>9</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="15">
         <v>8</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="15">
         <v>8</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="15">
         <v>33</v>
       </c>
-      <c r="H9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9">
-        <v>8.1</v>
-      </c>
-      <c r="J9">
-        <v>7.75</v>
-      </c>
-      <c r="K9">
-        <v>8.25</v>
-      </c>
-      <c r="L9">
-        <v>8.25</v>
-      </c>
-      <c r="M9">
-        <v>8</v>
-      </c>
-      <c r="N9">
-        <v>8.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+      <c r="Q9" t="s">
+        <v>46</v>
+      </c>
+      <c r="R9" t="s">
+        <v>51</v>
+      </c>
+      <c r="S9" t="s">
+        <v>47</v>
+      </c>
+      <c r="T9" t="s">
+        <v>48</v>
+      </c>
+      <c r="U9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10">
-        <v>8.6</v>
-      </c>
-      <c r="J10">
-        <v>9.5</v>
-      </c>
-      <c r="K10">
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="P10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q10">
+        <v>8.15</v>
+      </c>
+      <c r="R10">
+        <v>7.25</v>
+      </c>
+      <c r="S10">
+        <v>8</v>
+      </c>
+      <c r="T10">
         <v>9</v>
       </c>
-      <c r="L10">
-        <v>7.75</v>
-      </c>
-      <c r="M10">
-        <v>8.25</v>
-      </c>
-      <c r="N10">
+      <c r="U10">
+        <v>8</v>
+      </c>
+      <c r="V10">
         <v>8.5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="15">
         <v>9</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="15">
         <v>8</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="15">
         <v>9</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="15">
         <v>8</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="15">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="R11">
+        <v>9</v>
+      </c>
+      <c r="S11">
+        <v>8.25</v>
+      </c>
+      <c r="T11">
+        <v>9</v>
+      </c>
+      <c r="U11">
+        <v>8.25</v>
+      </c>
+      <c r="V11">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="1" t="s">
         <v>17</v>
@@ -2084,8 +5831,29 @@
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
-    </row>
-    <row r="13" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P12" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q12">
+        <v>8.5</v>
+      </c>
+      <c r="R12">
+        <v>7.5</v>
+      </c>
+      <c r="S12">
+        <v>8.5</v>
+      </c>
+      <c r="T12">
+        <v>9.25</v>
+      </c>
+      <c r="U12">
+        <v>8.75</v>
+      </c>
+      <c r="V12">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="1" t="s">
         <v>18</v>
@@ -2095,8 +5863,29 @@
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
-    </row>
-    <row r="14" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q13">
+        <v>8.1</v>
+      </c>
+      <c r="R13">
+        <v>8.25</v>
+      </c>
+      <c r="S13">
+        <v>7.75</v>
+      </c>
+      <c r="T13">
+        <v>8.25</v>
+      </c>
+      <c r="U13">
+        <v>8.25</v>
+      </c>
+      <c r="V13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="1" t="s">
         <v>19</v>
@@ -2106,41 +5895,62 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
-    </row>
-    <row r="15" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
+      <c r="P14" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q14">
+        <v>8.6</v>
+      </c>
+      <c r="R14">
+        <v>8.5</v>
+      </c>
+      <c r="S14">
+        <v>9.5</v>
+      </c>
+      <c r="T14">
+        <v>9</v>
+      </c>
+      <c r="U14">
+        <v>7.75</v>
+      </c>
+      <c r="V14">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
       <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="15">
         <v>8</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="15">
         <v>7</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="15">
         <v>8</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="15">
         <v>8</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="15">
         <v>31</v>
       </c>
-      <c r="H16" s="27"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
@@ -2152,7 +5962,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
-      <c r="H17" s="27"/>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
@@ -2164,7 +5974,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
-      <c r="H18" s="27"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
@@ -2176,43 +5986,43 @@
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
-      <c r="H19" s="27"/>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="27"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="15">
         <v>10</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="15">
         <v>9</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="15">
         <v>10</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="15">
         <v>9</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="15">
         <v>38</v>
       </c>
-      <c r="H21" s="27">
+      <c r="H21" s="4">
         <v>4</v>
       </c>
     </row>
@@ -2226,7 +6036,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
-      <c r="H22" s="27"/>
+      <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
@@ -2238,7 +6048,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
-      <c r="H23" s="27"/>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
@@ -2250,87 +6060,87 @@
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
-      <c r="H24" s="27"/>
+      <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="27"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="21">
+      <c r="B26" s="6"/>
+      <c r="C26" s="9">
         <v>8.4</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="27"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="27"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="6"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="20"/>
     </row>
     <row r="30" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="7" t="s">
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="9"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="23"/>
     </row>
     <row r="31" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="7" t="s">
+      <c r="B31" s="25"/>
+      <c r="C31" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="14" t="s">
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="1" t="s">
         <v>33</v>
       </c>
@@ -2343,28 +6153,28 @@
       <c r="F32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="15"/>
+      <c r="G32" s="17"/>
     </row>
     <row r="33" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="15">
         <v>9</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="15">
         <v>9</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="15">
         <v>9</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F33" s="15">
         <v>9</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G33" s="15">
         <v>36</v>
       </c>
     </row>
@@ -2391,70 +6201,70 @@
       <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
+      <c r="A36" s="17"/>
       <c r="B36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="15">
         <v>9</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="15">
         <v>9</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="15">
         <v>9</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F37" s="15">
         <v>9</v>
       </c>
-      <c r="G37" s="14">
+      <c r="G37" s="15">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
+      <c r="A38" s="17"/>
       <c r="B38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
     </row>
     <row r="39" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="14">
+      <c r="C39" s="15">
         <v>9</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D39" s="15">
         <v>10</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="15">
         <v>9</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F39" s="15">
         <v>9</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G39" s="15">
         <v>37</v>
       </c>
     </row>
@@ -2492,36 +6302,36 @@
       <c r="G42" s="16"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
+      <c r="A43" s="17"/>
       <c r="B43" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
     </row>
     <row r="44" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="14">
+      <c r="C44" s="15">
         <v>9</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D44" s="15">
         <v>8</v>
       </c>
-      <c r="E44" s="14">
+      <c r="E44" s="15">
         <v>8</v>
       </c>
-      <c r="F44" s="14">
+      <c r="F44" s="15">
         <v>8</v>
       </c>
-      <c r="G44" s="14">
+      <c r="G44" s="15">
         <v>33</v>
       </c>
     </row>
@@ -2559,36 +6369,36 @@
       <c r="G47" s="16"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
+      <c r="A48" s="17"/>
       <c r="B48" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
     </row>
     <row r="49" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="14">
+      <c r="C49" s="15">
         <v>10</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D49" s="15">
         <v>8</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E49" s="15">
         <v>9</v>
       </c>
-      <c r="F49" s="14">
+      <c r="F49" s="15">
         <v>9</v>
       </c>
-      <c r="G49" s="14">
+      <c r="G49" s="15">
         <v>36</v>
       </c>
     </row>
@@ -2626,81 +6436,81 @@
       <c r="G52" s="16"/>
     </row>
     <row r="53" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
+      <c r="A53" s="17"/>
       <c r="B53" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B54" s="18"/>
-      <c r="C54" s="21">
+      <c r="B54" s="6"/>
+      <c r="C54" s="9">
         <v>8.9</v>
       </c>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="23"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="11"/>
     </row>
     <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="19"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="26"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="14"/>
     </row>
     <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="57" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="6"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="20"/>
     </row>
     <row r="58" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="7" t="s">
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F58" s="8"/>
-      <c r="G58" s="9"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="23"/>
     </row>
     <row r="59" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="11"/>
-      <c r="C59" s="7" t="s">
+      <c r="B59" s="25"/>
+      <c r="C59" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="14" t="s">
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="12"/>
-      <c r="B60" s="13"/>
+      <c r="A60" s="26"/>
+      <c r="B60" s="27"/>
       <c r="C60" s="1" t="s">
         <v>34</v>
       </c>
@@ -2713,28 +6523,28 @@
       <c r="F60" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G60" s="15"/>
+      <c r="G60" s="17"/>
     </row>
     <row r="61" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="14">
+      <c r="C61" s="15">
         <v>8</v>
       </c>
-      <c r="D61" s="14">
+      <c r="D61" s="15">
         <v>8</v>
       </c>
-      <c r="E61" s="14">
+      <c r="E61" s="15">
         <v>8</v>
       </c>
-      <c r="F61" s="14">
+      <c r="F61" s="15">
         <v>8</v>
       </c>
-      <c r="G61" s="14">
+      <c r="G61" s="15">
         <v>32</v>
       </c>
     </row>
@@ -2761,70 +6571,70 @@
       <c r="G63" s="16"/>
     </row>
     <row r="64" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="15"/>
+      <c r="A64" s="17"/>
       <c r="B64" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
     </row>
     <row r="65" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C65" s="14">
+      <c r="C65" s="15">
         <v>7</v>
       </c>
-      <c r="D65" s="14">
+      <c r="D65" s="15">
         <v>9</v>
       </c>
-      <c r="E65" s="14">
+      <c r="E65" s="15">
         <v>9</v>
       </c>
-      <c r="F65" s="14">
+      <c r="F65" s="15">
         <v>8</v>
       </c>
-      <c r="G65" s="14">
+      <c r="G65" s="15">
         <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="15"/>
+      <c r="A66" s="17"/>
       <c r="B66" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
     </row>
     <row r="67" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C67" s="14">
+      <c r="C67" s="15">
         <v>8</v>
       </c>
-      <c r="D67" s="14">
+      <c r="D67" s="15">
         <v>9</v>
       </c>
-      <c r="E67" s="14">
+      <c r="E67" s="15">
         <v>9</v>
       </c>
-      <c r="F67" s="14">
+      <c r="F67" s="15">
         <v>9</v>
       </c>
-      <c r="G67" s="14">
+      <c r="G67" s="15">
         <v>35</v>
       </c>
     </row>
@@ -2862,36 +6672,36 @@
       <c r="G70" s="16"/>
     </row>
     <row r="71" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="15"/>
+      <c r="A71" s="17"/>
       <c r="B71" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
     </row>
     <row r="72" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C72" s="14">
+      <c r="C72" s="15">
         <v>8</v>
       </c>
-      <c r="D72" s="14">
+      <c r="D72" s="15">
         <v>9</v>
       </c>
-      <c r="E72" s="14">
+      <c r="E72" s="15">
         <v>8</v>
       </c>
-      <c r="F72" s="14">
+      <c r="F72" s="15">
         <v>8</v>
       </c>
-      <c r="G72" s="14">
+      <c r="G72" s="15">
         <v>33</v>
       </c>
     </row>
@@ -2929,36 +6739,36 @@
       <c r="G75" s="16"/>
     </row>
     <row r="76" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="15"/>
+      <c r="A76" s="17"/>
       <c r="B76" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
     </row>
     <row r="77" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C77" s="14">
+      <c r="C77" s="15">
         <v>7</v>
       </c>
-      <c r="D77" s="14">
+      <c r="D77" s="15">
         <v>8</v>
       </c>
-      <c r="E77" s="14">
+      <c r="E77" s="15">
         <v>9</v>
       </c>
-      <c r="F77" s="14">
+      <c r="F77" s="15">
         <v>7</v>
       </c>
-      <c r="G77" s="14">
+      <c r="G77" s="15">
         <v>31</v>
       </c>
     </row>
@@ -2996,81 +6806,81 @@
       <c r="G80" s="16"/>
     </row>
     <row r="81" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="15"/>
+      <c r="A81" s="17"/>
       <c r="B81" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="17" t="s">
+      <c r="A82" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B82" s="18"/>
-      <c r="C82" s="21">
+      <c r="B82" s="6"/>
+      <c r="C82" s="9">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="23"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="11"/>
     </row>
     <row r="83" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="19"/>
-      <c r="B83" s="20"/>
-      <c r="C83" s="24"/>
-      <c r="D83" s="25"/>
-      <c r="E83" s="25"/>
-      <c r="F83" s="25"/>
-      <c r="G83" s="26"/>
+      <c r="A83" s="7"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="14"/>
     </row>
     <row r="84" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="85" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="6"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="20"/>
     </row>
     <row r="86" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="7" t="s">
+      <c r="A86" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="7" t="s">
+      <c r="B86" s="22"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F86" s="8"/>
-      <c r="G86" s="9"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="23"/>
     </row>
     <row r="87" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="10" t="s">
+      <c r="A87" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B87" s="11"/>
-      <c r="C87" s="7" t="s">
+      <c r="B87" s="25"/>
+      <c r="C87" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="14" t="s">
+      <c r="D87" s="22"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="12"/>
-      <c r="B88" s="13"/>
+      <c r="A88" s="26"/>
+      <c r="B88" s="27"/>
       <c r="C88" s="1" t="s">
         <v>34</v>
       </c>
@@ -3083,28 +6893,28 @@
       <c r="F88" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G88" s="15"/>
+      <c r="G88" s="17"/>
     </row>
     <row r="89" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="14" t="s">
+      <c r="A89" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C89" s="14">
+      <c r="C89" s="15">
         <v>8</v>
       </c>
-      <c r="D89" s="14">
+      <c r="D89" s="15">
         <v>9</v>
       </c>
-      <c r="E89" s="14">
+      <c r="E89" s="15">
         <v>9</v>
       </c>
-      <c r="F89" s="14">
+      <c r="F89" s="15">
         <v>8</v>
       </c>
-      <c r="G89" s="14">
+      <c r="G89" s="15">
         <v>34</v>
       </c>
     </row>
@@ -3131,70 +6941,70 @@
       <c r="G91" s="16"/>
     </row>
     <row r="92" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="15"/>
+      <c r="A92" s="17"/>
       <c r="B92" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="15"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
     </row>
     <row r="93" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="14" t="s">
+      <c r="A93" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C93" s="14">
+      <c r="C93" s="15">
         <v>8</v>
       </c>
-      <c r="D93" s="14">
+      <c r="D93" s="15">
         <v>9</v>
       </c>
-      <c r="E93" s="14">
+      <c r="E93" s="15">
         <v>8</v>
       </c>
-      <c r="F93" s="14">
+      <c r="F93" s="15">
         <v>8</v>
       </c>
-      <c r="G93" s="14">
+      <c r="G93" s="15">
         <v>33</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="15"/>
+      <c r="A94" s="17"/>
       <c r="B94" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C94" s="15"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="15"/>
-      <c r="F94" s="15"/>
-      <c r="G94" s="15"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17"/>
     </row>
     <row r="95" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="14" t="s">
+      <c r="A95" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C95" s="14">
+      <c r="C95" s="15">
         <v>8</v>
       </c>
-      <c r="D95" s="14">
+      <c r="D95" s="15">
         <v>9</v>
       </c>
-      <c r="E95" s="14">
+      <c r="E95" s="15">
         <v>9</v>
       </c>
-      <c r="F95" s="14">
+      <c r="F95" s="15">
         <v>8</v>
       </c>
-      <c r="G95" s="14">
+      <c r="G95" s="15">
         <v>34</v>
       </c>
     </row>
@@ -3232,36 +7042,36 @@
       <c r="G98" s="16"/>
     </row>
     <row r="99" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="15"/>
+      <c r="A99" s="17"/>
       <c r="B99" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C99" s="15"/>
-      <c r="D99" s="15"/>
-      <c r="E99" s="15"/>
-      <c r="F99" s="15"/>
-      <c r="G99" s="15"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
     </row>
     <row r="100" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="14" t="s">
+      <c r="A100" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C100" s="14">
+      <c r="C100" s="15">
         <v>8</v>
       </c>
-      <c r="D100" s="14">
+      <c r="D100" s="15">
         <v>8</v>
       </c>
-      <c r="E100" s="14">
+      <c r="E100" s="15">
         <v>8</v>
       </c>
-      <c r="F100" s="14">
+      <c r="F100" s="15">
         <v>8</v>
       </c>
-      <c r="G100" s="14">
+      <c r="G100" s="15">
         <v>32</v>
       </c>
     </row>
@@ -3299,36 +7109,36 @@
       <c r="G103" s="16"/>
     </row>
     <row r="104" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="15"/>
+      <c r="A104" s="17"/>
       <c r="B104" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C104" s="15"/>
-      <c r="D104" s="15"/>
-      <c r="E104" s="15"/>
-      <c r="F104" s="15"/>
-      <c r="G104" s="15"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="17"/>
+      <c r="G104" s="17"/>
     </row>
     <row r="105" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="14" t="s">
+      <c r="A105" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C105" s="14">
+      <c r="C105" s="15">
         <v>8</v>
       </c>
-      <c r="D105" s="14">
+      <c r="D105" s="15">
         <v>9</v>
       </c>
-      <c r="E105" s="14">
+      <c r="E105" s="15">
         <v>8</v>
       </c>
-      <c r="F105" s="14">
+      <c r="F105" s="15">
         <v>8</v>
       </c>
-      <c r="G105" s="14">
+      <c r="G105" s="15">
         <v>33</v>
       </c>
     </row>
@@ -3366,37 +7176,37 @@
       <c r="G108" s="16"/>
     </row>
     <row r="109" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="15"/>
+      <c r="A109" s="17"/>
       <c r="B109" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C109" s="15"/>
-      <c r="D109" s="15"/>
-      <c r="E109" s="15"/>
-      <c r="F109" s="15"/>
-      <c r="G109" s="15"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="17"/>
     </row>
     <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="17" t="s">
+      <c r="A110" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B110" s="18"/>
-      <c r="C110" s="21">
+      <c r="B110" s="6"/>
+      <c r="C110" s="9">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D110" s="22"/>
-      <c r="E110" s="22"/>
-      <c r="F110" s="22"/>
-      <c r="G110" s="23"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="11"/>
     </row>
     <row r="111" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="19"/>
-      <c r="B111" s="20"/>
-      <c r="C111" s="24"/>
-      <c r="D111" s="25"/>
-      <c r="E111" s="25"/>
-      <c r="F111" s="25"/>
-      <c r="G111" s="26"/>
+      <c r="A111" s="7"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="13"/>
+      <c r="F111" s="13"/>
+      <c r="G111" s="14"/>
     </row>
     <row r="112" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
@@ -3427,47 +7237,47 @@
     </row>
     <row r="115" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="116" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="4" t="s">
+      <c r="A116" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B116" s="5"/>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5"/>
-      <c r="G116" s="6"/>
+      <c r="B116" s="19"/>
+      <c r="C116" s="19"/>
+      <c r="D116" s="19"/>
+      <c r="E116" s="19"/>
+      <c r="F116" s="19"/>
+      <c r="G116" s="20"/>
     </row>
     <row r="117" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="7" t="s">
+      <c r="A117" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B117" s="8"/>
-      <c r="C117" s="8"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="7" t="s">
+      <c r="B117" s="22"/>
+      <c r="C117" s="22"/>
+      <c r="D117" s="23"/>
+      <c r="E117" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F117" s="8"/>
-      <c r="G117" s="9"/>
+      <c r="F117" s="22"/>
+      <c r="G117" s="23"/>
     </row>
     <row r="118" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="10" t="s">
+      <c r="A118" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B118" s="11"/>
-      <c r="C118" s="7" t="s">
+      <c r="B118" s="25"/>
+      <c r="C118" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D118" s="8"/>
-      <c r="E118" s="8"/>
-      <c r="F118" s="9"/>
-      <c r="G118" s="14" t="s">
+      <c r="D118" s="22"/>
+      <c r="E118" s="22"/>
+      <c r="F118" s="23"/>
+      <c r="G118" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="12"/>
-      <c r="B119" s="13"/>
+      <c r="A119" s="26"/>
+      <c r="B119" s="27"/>
       <c r="C119" s="1" t="s">
         <v>34</v>
       </c>
@@ -3480,28 +7290,28 @@
       <c r="F119" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G119" s="15"/>
+      <c r="G119" s="17"/>
     </row>
     <row r="120" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="14" t="s">
+      <c r="A120" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C120" s="14">
+      <c r="C120" s="15">
         <v>8</v>
       </c>
-      <c r="D120" s="14">
+      <c r="D120" s="15">
         <v>7</v>
       </c>
-      <c r="E120" s="14">
+      <c r="E120" s="15">
         <v>7</v>
       </c>
-      <c r="F120" s="14">
+      <c r="F120" s="15">
         <v>7</v>
       </c>
-      <c r="G120" s="14">
+      <c r="G120" s="15">
         <v>29</v>
       </c>
     </row>
@@ -3528,70 +7338,70 @@
       <c r="G122" s="16"/>
     </row>
     <row r="123" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="15"/>
+      <c r="A123" s="17"/>
       <c r="B123" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C123" s="15"/>
-      <c r="D123" s="15"/>
-      <c r="E123" s="15"/>
-      <c r="F123" s="15"/>
-      <c r="G123" s="15"/>
+      <c r="C123" s="17"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="17"/>
+      <c r="F123" s="17"/>
+      <c r="G123" s="17"/>
     </row>
     <row r="124" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="14" t="s">
+      <c r="A124" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C124" s="14">
+      <c r="C124" s="15">
         <v>9</v>
       </c>
-      <c r="D124" s="14">
+      <c r="D124" s="15">
         <v>9</v>
       </c>
-      <c r="E124" s="14">
+      <c r="E124" s="15">
         <v>9</v>
       </c>
-      <c r="F124" s="14">
+      <c r="F124" s="15">
         <v>9</v>
       </c>
-      <c r="G124" s="14">
+      <c r="G124" s="15">
         <v>36</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="15"/>
+      <c r="A125" s="17"/>
       <c r="B125" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C125" s="15"/>
-      <c r="D125" s="15"/>
-      <c r="E125" s="15"/>
-      <c r="F125" s="15"/>
-      <c r="G125" s="15"/>
+      <c r="C125" s="17"/>
+      <c r="D125" s="17"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="17"/>
+      <c r="G125" s="17"/>
     </row>
     <row r="126" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="14" t="s">
+      <c r="A126" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C126" s="14">
+      <c r="C126" s="15">
         <v>7</v>
       </c>
-      <c r="D126" s="14">
+      <c r="D126" s="15">
         <v>8</v>
       </c>
-      <c r="E126" s="14">
+      <c r="E126" s="15">
         <v>8</v>
       </c>
-      <c r="F126" s="14">
+      <c r="F126" s="15">
         <v>7</v>
       </c>
-      <c r="G126" s="14">
+      <c r="G126" s="15">
         <v>30</v>
       </c>
     </row>
@@ -3629,36 +7439,36 @@
       <c r="G129" s="16"/>
     </row>
     <row r="130" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="15"/>
+      <c r="A130" s="17"/>
       <c r="B130" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C130" s="15"/>
-      <c r="D130" s="15"/>
-      <c r="E130" s="15"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="15"/>
+      <c r="C130" s="17"/>
+      <c r="D130" s="17"/>
+      <c r="E130" s="17"/>
+      <c r="F130" s="17"/>
+      <c r="G130" s="17"/>
     </row>
     <row r="131" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="14" t="s">
+      <c r="A131" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C131" s="14">
+      <c r="C131" s="15">
         <v>8</v>
       </c>
-      <c r="D131" s="14">
+      <c r="D131" s="15">
         <v>8</v>
       </c>
-      <c r="E131" s="14">
+      <c r="E131" s="15">
         <v>8</v>
       </c>
-      <c r="F131" s="14">
+      <c r="F131" s="15">
         <v>9</v>
       </c>
-      <c r="G131" s="14">
+      <c r="G131" s="15">
         <v>33</v>
       </c>
     </row>
@@ -3696,36 +7506,36 @@
       <c r="G134" s="16"/>
     </row>
     <row r="135" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="15"/>
+      <c r="A135" s="17"/>
       <c r="B135" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C135" s="15"/>
-      <c r="D135" s="15"/>
-      <c r="E135" s="15"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="15"/>
+      <c r="C135" s="17"/>
+      <c r="D135" s="17"/>
+      <c r="E135" s="17"/>
+      <c r="F135" s="17"/>
+      <c r="G135" s="17"/>
     </row>
     <row r="136" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="14" t="s">
+      <c r="A136" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C136" s="14">
+      <c r="C136" s="15">
         <v>9</v>
       </c>
-      <c r="D136" s="14">
+      <c r="D136" s="15">
         <v>8</v>
       </c>
-      <c r="E136" s="14">
+      <c r="E136" s="15">
         <v>8</v>
       </c>
-      <c r="F136" s="14">
+      <c r="F136" s="15">
         <v>9</v>
       </c>
-      <c r="G136" s="14">
+      <c r="G136" s="15">
         <v>34</v>
       </c>
     </row>
@@ -3763,40 +7573,206 @@
       <c r="G139" s="16"/>
     </row>
     <row r="140" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="15"/>
+      <c r="A140" s="17"/>
       <c r="B140" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C140" s="15"/>
-      <c r="D140" s="15"/>
-      <c r="E140" s="15"/>
-      <c r="F140" s="15"/>
-      <c r="G140" s="15"/>
+      <c r="C140" s="17"/>
+      <c r="D140" s="17"/>
+      <c r="E140" s="17"/>
+      <c r="F140" s="17"/>
+      <c r="G140" s="17"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141" s="17" t="s">
+      <c r="A141" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B141" s="18"/>
-      <c r="C141" s="21">
+      <c r="B141" s="6"/>
+      <c r="C141" s="9">
         <v>8.1</v>
       </c>
-      <c r="D141" s="22"/>
-      <c r="E141" s="22"/>
-      <c r="F141" s="22"/>
-      <c r="G141" s="23"/>
+      <c r="D141" s="10"/>
+      <c r="E141" s="10"/>
+      <c r="F141" s="10"/>
+      <c r="G141" s="11"/>
     </row>
     <row r="142" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="19"/>
-      <c r="B142" s="20"/>
-      <c r="C142" s="24"/>
-      <c r="D142" s="25"/>
-      <c r="E142" s="25"/>
-      <c r="F142" s="25"/>
-      <c r="G142" s="26"/>
+      <c r="A142" s="7"/>
+      <c r="B142" s="8"/>
+      <c r="C142" s="12"/>
+      <c r="D142" s="13"/>
+      <c r="E142" s="13"/>
+      <c r="F142" s="13"/>
+      <c r="G142" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="190">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="D16:D20"/>
+    <mergeCell ref="E16:E20"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="G16:G20"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="G11:G15"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="G21:G25"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="G33:G36"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="E44:E48"/>
+    <mergeCell ref="F44:F48"/>
+    <mergeCell ref="G44:G48"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="G39:G43"/>
+    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="A59:B60"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="D49:D53"/>
+    <mergeCell ref="E49:E53"/>
+    <mergeCell ref="F49:F53"/>
+    <mergeCell ref="G49:G53"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="D61:D64"/>
+    <mergeCell ref="E61:E64"/>
+    <mergeCell ref="F61:F64"/>
+    <mergeCell ref="G61:G64"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="C72:C76"/>
+    <mergeCell ref="D72:D76"/>
+    <mergeCell ref="E72:E76"/>
+    <mergeCell ref="F72:F76"/>
+    <mergeCell ref="G72:G76"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="C67:C71"/>
+    <mergeCell ref="D67:D71"/>
+    <mergeCell ref="E67:E71"/>
+    <mergeCell ref="F67:F71"/>
+    <mergeCell ref="G67:G71"/>
+    <mergeCell ref="A85:G85"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="A87:B88"/>
+    <mergeCell ref="C87:F87"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="C77:C81"/>
+    <mergeCell ref="D77:D81"/>
+    <mergeCell ref="E77:E81"/>
+    <mergeCell ref="F77:F81"/>
+    <mergeCell ref="G77:G81"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A89:A92"/>
+    <mergeCell ref="C89:C92"/>
+    <mergeCell ref="D89:D92"/>
+    <mergeCell ref="E89:E92"/>
+    <mergeCell ref="F89:F92"/>
+    <mergeCell ref="G89:G92"/>
+    <mergeCell ref="A100:A104"/>
+    <mergeCell ref="C100:C104"/>
+    <mergeCell ref="D100:D104"/>
+    <mergeCell ref="E100:E104"/>
+    <mergeCell ref="F100:F104"/>
+    <mergeCell ref="G100:G104"/>
+    <mergeCell ref="A110:B111"/>
+    <mergeCell ref="C110:G111"/>
+    <mergeCell ref="A95:A99"/>
+    <mergeCell ref="C95:C99"/>
+    <mergeCell ref="D95:D99"/>
+    <mergeCell ref="E95:E99"/>
+    <mergeCell ref="F95:F99"/>
+    <mergeCell ref="G95:G99"/>
+    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="C120:C123"/>
+    <mergeCell ref="D120:D123"/>
+    <mergeCell ref="E120:E123"/>
+    <mergeCell ref="F120:F123"/>
+    <mergeCell ref="G120:G123"/>
+    <mergeCell ref="A116:G116"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="E117:G117"/>
+    <mergeCell ref="A118:B119"/>
+    <mergeCell ref="C118:F118"/>
+    <mergeCell ref="G118:G119"/>
+    <mergeCell ref="F131:F135"/>
+    <mergeCell ref="G131:G135"/>
+    <mergeCell ref="A126:A130"/>
+    <mergeCell ref="C126:C130"/>
+    <mergeCell ref="D126:D130"/>
+    <mergeCell ref="E126:E130"/>
+    <mergeCell ref="F126:F130"/>
+    <mergeCell ref="G126:G130"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="G124:G125"/>
     <mergeCell ref="A141:B142"/>
     <mergeCell ref="C141:G142"/>
     <mergeCell ref="A26:B27"/>
@@ -3821,172 +7797,6 @@
     <mergeCell ref="C131:C135"/>
     <mergeCell ref="D131:D135"/>
     <mergeCell ref="E131:E135"/>
-    <mergeCell ref="F131:F135"/>
-    <mergeCell ref="G131:G135"/>
-    <mergeCell ref="A126:A130"/>
-    <mergeCell ref="C126:C130"/>
-    <mergeCell ref="D126:D130"/>
-    <mergeCell ref="E126:E130"/>
-    <mergeCell ref="F126:F130"/>
-    <mergeCell ref="G126:G130"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="F124:F125"/>
-    <mergeCell ref="G124:G125"/>
-    <mergeCell ref="A120:A123"/>
-    <mergeCell ref="C120:C123"/>
-    <mergeCell ref="D120:D123"/>
-    <mergeCell ref="E120:E123"/>
-    <mergeCell ref="F120:F123"/>
-    <mergeCell ref="G120:G123"/>
-    <mergeCell ref="A116:G116"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="E117:G117"/>
-    <mergeCell ref="A118:B119"/>
-    <mergeCell ref="C118:F118"/>
-    <mergeCell ref="G118:G119"/>
-    <mergeCell ref="A100:A104"/>
-    <mergeCell ref="C100:C104"/>
-    <mergeCell ref="D100:D104"/>
-    <mergeCell ref="E100:E104"/>
-    <mergeCell ref="F100:F104"/>
-    <mergeCell ref="G100:G104"/>
-    <mergeCell ref="A110:B111"/>
-    <mergeCell ref="C110:G111"/>
-    <mergeCell ref="A95:A99"/>
-    <mergeCell ref="C95:C99"/>
-    <mergeCell ref="D95:D99"/>
-    <mergeCell ref="E95:E99"/>
-    <mergeCell ref="F95:F99"/>
-    <mergeCell ref="G95:G99"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A89:A92"/>
-    <mergeCell ref="C89:C92"/>
-    <mergeCell ref="D89:D92"/>
-    <mergeCell ref="E89:E92"/>
-    <mergeCell ref="F89:F92"/>
-    <mergeCell ref="G89:G92"/>
-    <mergeCell ref="A85:G85"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="A87:B88"/>
-    <mergeCell ref="C87:F87"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="C77:C81"/>
-    <mergeCell ref="D77:D81"/>
-    <mergeCell ref="E77:E81"/>
-    <mergeCell ref="F77:F81"/>
-    <mergeCell ref="G77:G81"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="C72:C76"/>
-    <mergeCell ref="D72:D76"/>
-    <mergeCell ref="E72:E76"/>
-    <mergeCell ref="F72:F76"/>
-    <mergeCell ref="G72:G76"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="C67:C71"/>
-    <mergeCell ref="D67:D71"/>
-    <mergeCell ref="E67:E71"/>
-    <mergeCell ref="F67:F71"/>
-    <mergeCell ref="G67:G71"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="D61:D64"/>
-    <mergeCell ref="E61:E64"/>
-    <mergeCell ref="F61:F64"/>
-    <mergeCell ref="G61:G64"/>
-    <mergeCell ref="A57:G57"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="A59:B60"/>
-    <mergeCell ref="C59:F59"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="D49:D53"/>
-    <mergeCell ref="E49:E53"/>
-    <mergeCell ref="F49:F53"/>
-    <mergeCell ref="G49:G53"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="C44:C48"/>
-    <mergeCell ref="D44:D48"/>
-    <mergeCell ref="E44:E48"/>
-    <mergeCell ref="F44:F48"/>
-    <mergeCell ref="G44:G48"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="E39:E43"/>
-    <mergeCell ref="F39:F43"/>
-    <mergeCell ref="G39:G43"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="G33:G36"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="G21:G25"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="D16:D20"/>
-    <mergeCell ref="E16:E20"/>
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="G16:G20"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="G11:G15"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="F5:F8"/>
-    <mergeCell ref="G5:G8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
